--- a/Projects/CCRU_SAND/Data/KPIs_2018/gaps_guide_2018.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2018/gaps_guide_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="rules" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,6 +30,7 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Convenience Big'!$A$1:$K$16</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -322,7 +323,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -346,6 +347,13 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -362,17 +370,9 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -381,14 +381,8 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,14 +395,8 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -429,20 +417,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -474,101 +448,53 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -655,9 +581,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -671,7 +597,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17894520" cy="2224440"/>
+          <a:ext cx="17894160" cy="2224080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -697,7 +623,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -724,110 +650,118 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L27" activeCellId="0" sqref="L27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="19.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="34.0364372469636"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.32793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.2105263157895"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.2672064777328"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.4736842105263"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.7651821862348"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="1" t="n">
         <v>2486</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="21" t="n">
+      <c r="H2" s="11" t="n">
         <v>0.08</v>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="4" t="n">
+      <c r="J2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="1" t="n">
         <v>2490</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="23" t="n">
+      <c r="H3" s="11" t="n">
         <v>0.1</v>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="I3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="4" t="n">
+      <c r="J3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -849,498 +783,506 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="19.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.6072874493927"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.5222672064777"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.1781376518219"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="14.919028340081"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.5344129554656"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.1781376518219"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.4736842105263"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.6801619433198"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.9716599190283"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="s">
+    <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>2519</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0" t="s">
+    <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>2521</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
+    <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>2523</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="s">
+    <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>2525</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="0" t="s">
+    <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>2527</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <v>0.08</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="0" t="s">
+    <row r="7" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>2528</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="J7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="J7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K7" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="0" t="s">
+    <row r="8" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <v>2529</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="0" t="s">
+    <row r="9" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <v>2530</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="J9" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="K9" s="0" t="n">
+      <c r="J9" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="K9" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="0" t="s">
+    <row r="10" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <v>2531</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="1" t="n">
         <v>0.06</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="0" t="s">
+    <row r="11" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>2532</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="J11" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="J11" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
         <v>2533</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="1" t="n">
         <v>0.09</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K12" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="K12" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <v>2536</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="1" t="n">
         <v>0.023</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K13" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="0" t="s">
+      <c r="K13" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
         <v>2538</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="1" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="0" t="s">
+    <row r="15" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="1" t="n">
         <v>2539</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="1" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1370,530 +1312,538 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="19.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.8056680161943"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.1781376518219"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.7125506072875"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.32793522267206"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.1781376518219"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.2672064777328"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.4736842105263"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.7651821862348"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="s">
+    <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>2494</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0" t="s">
+    <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>2496</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
+    <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>2498</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="s">
+    <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>2500</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="J5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K5" s="0" t="n">
+      <c r="J5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K5" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="0" t="s">
+    <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>2502</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="0" t="s">
+    <row r="7" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>2503</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="J7" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="J7" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="K7" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="0" t="s">
+    <row r="8" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <v>2504</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="1" t="n">
         <v>0.04</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="0" t="s">
+    <row r="9" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <v>2505</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="J9" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K9" s="0" t="n">
+      <c r="J9" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="K9" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="0" t="s">
+    <row r="10" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <v>2506</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="0" t="s">
+    <row r="11" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>2507</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="K11" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="0" t="s">
+      <c r="K11" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
         <v>2508</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K12" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="K12" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <v>2509</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="1" t="n">
         <v>0.09</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K13" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="K13" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
         <v>2512</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="1" t="n">
         <v>0.023</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="1" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="0" t="s">
+    <row r="15" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="1" t="n">
         <v>2514</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="1" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="0" t="s">
+    <row r="16" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="1" t="n">
         <v>2515</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1915,692 +1865,694 @@
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="19.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.3198380566802"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1619433198381"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.7327935222672"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="46.0323886639676"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.1781376518219"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.32793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.1781376518219"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.2672064777328"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.4736842105263"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.7651821862348"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="6" t="s">
+    <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7" t="n">
+      <c r="F2" s="5" t="n">
         <v>2597</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="8" t="n">
+      <c r="H2" s="6" t="n">
         <v>0.025</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="I2" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="7" t="n">
+      <c r="J2" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6" t="s">
+    <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="5" t="n">
         <v>2598</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="8" t="n">
+      <c r="H3" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="I3" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="J3" s="7" t="n">
+      <c r="I3" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
+    <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="5" t="n">
         <v>2599</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="8" t="n">
+      <c r="H4" s="6" t="n">
         <v>0.02</v>
       </c>
-      <c r="I4" s="7" t="n">
+      <c r="I4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J4" s="7" t="n">
+      <c r="J4" s="5" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6" t="s">
+    <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="5" t="n">
         <v>2600</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="8" t="n">
+      <c r="H5" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="I5" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="J5" s="7" t="n">
+      <c r="J5" s="5" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6" t="s">
+    <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="5" t="n">
         <v>2601</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="8" t="n">
+      <c r="H6" s="6" t="n">
         <v>0.02</v>
       </c>
-      <c r="I6" s="7" t="n">
+      <c r="I6" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J6" s="7" t="n">
+      <c r="J6" s="5" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6" t="s">
+    <row r="7" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="5" t="n">
         <v>2602</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="8" t="n">
+      <c r="H7" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="I7" s="7" t="n">
+      <c r="I7" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="J7" s="7" t="n">
+      <c r="J7" s="5" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6" t="s">
+    <row r="8" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="5" t="n">
         <v>2603</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="8" t="n">
+      <c r="H8" s="6" t="n">
         <v>0.02</v>
       </c>
-      <c r="I8" s="7" t="n">
+      <c r="I8" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J8" s="7" t="n">
+      <c r="J8" s="5" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6" t="s">
+    <row r="9" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="F9" s="5" t="n">
         <v>2604</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="8" t="n">
+      <c r="H9" s="6" t="n">
         <v>0.02</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="I9" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J9" s="7" t="n">
+      <c r="J9" s="5" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6" t="s">
+    <row r="10" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="5" t="n">
         <v>2605</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="8" t="n">
+      <c r="H10" s="6" t="n">
         <v>0.02</v>
       </c>
-      <c r="I10" s="7" t="n">
+      <c r="I10" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J10" s="7" t="n">
+      <c r="J10" s="5" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6" t="s">
+    <row r="11" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="7" t="n">
+      <c r="F11" s="5" t="n">
         <v>2606</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="8" t="n">
+      <c r="H11" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="I11" s="7" t="n">
+      <c r="I11" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="J11" s="7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="J11" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="7" t="n">
+      <c r="F12" s="5" t="n">
         <v>2607</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="8" t="n">
+      <c r="H12" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="I12" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="J12" s="7" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="I12" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="7" t="n">
+      <c r="F13" s="5" t="n">
         <v>2608</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="8" t="n">
+      <c r="H13" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="I13" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="J13" s="7" t="n">
+      <c r="I13" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="6" t="s">
+    <row r="14" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="7" t="n">
+      <c r="F14" s="5" t="n">
         <v>2610</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="8" t="n">
+      <c r="H14" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="I14" s="7" t="n">
+      <c r="I14" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="J14" s="7" t="n">
+      <c r="J14" s="5" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="6" t="s">
+    <row r="15" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="7" t="n">
+      <c r="F15" s="5" t="n">
         <v>2612</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="8" t="n">
+      <c r="H15" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="I15" s="7" t="n">
+      <c r="I15" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="J15" s="7" t="n">
+      <c r="J15" s="5" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="6" t="s">
+    <row r="16" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="7" t="n">
+      <c r="F16" s="5" t="n">
         <v>2614</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="8" t="n">
+      <c r="H16" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="I16" s="7" t="n">
+      <c r="I16" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="J16" s="7" t="n">
+      <c r="J16" s="5" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="6" t="s">
+    <row r="17" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="7" t="n">
+      <c r="F17" s="5" t="n">
         <v>2616</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="8" t="n">
+      <c r="H17" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="I17" s="7" t="n">
+      <c r="I17" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="J17" s="7" t="n">
+      <c r="J17" s="5" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
+    <row r="18" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="7" t="n">
+      <c r="F18" s="5" t="n">
         <v>2619</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="8" t="n">
+      <c r="H18" s="6" t="n">
         <v>0.09</v>
       </c>
-      <c r="I18" s="7" t="n">
+      <c r="I18" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J18" s="7" t="n">
+      <c r="J18" s="5" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+    <row r="19" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="7" t="n">
+      <c r="F19" s="5" t="n">
         <v>2622</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="8" t="n">
+      <c r="H19" s="6" t="n">
         <v>0.0225</v>
       </c>
-      <c r="I19" s="7" t="n">
+      <c r="I19" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J19" s="7" t="n">
+      <c r="J19" s="5" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="9" t="s">
+    <row r="20" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="7" t="n">
+      <c r="F20" s="5" t="n">
         <v>2626</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="8" t="n">
+      <c r="H20" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I20" s="7" t="n">
+      <c r="I20" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J20" s="7" t="n">
+      <c r="J20" s="5" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="9" t="s">
+    <row r="21" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="7" t="n">
+      <c r="F21" s="5" t="n">
         <v>2627</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="8" t="n">
+      <c r="H21" s="6" t="n">
         <v>0.02</v>
       </c>
-      <c r="I21" s="7" t="n">
+      <c r="I21" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J21" s="7" t="n">
+      <c r="J21" s="5" t="n">
         <v>21</v>
       </c>
     </row>
@@ -2623,630 +2575,630 @@
   </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="19.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.5222672064777"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.6437246963563"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.3765182186235"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="48.7246963562753"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.0769230769231"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.9271255060729"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="40.5182186234818"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="39.5425101214575"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.1781376518219"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.32793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.1781376518219"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.2672064777328"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.4736842105263"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.7651821862348"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="s">
+    <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>2610</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="J2" s="0" t="n">
+      <c r="I2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0" t="s">
+    <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>2612</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
+    <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>2614</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="s">
+    <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>2616</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="0" t="s">
+    <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>2597</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="0" t="s">
+    <row r="7" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>2598</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="0" t="s">
+    <row r="8" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>2599</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="0" t="s">
+    <row r="9" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>2600</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="0" t="s">
+    <row r="10" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>2601</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="0" t="s">
+    <row r="11" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>2602</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="J11" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="0" t="s">
+      <c r="J11" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>2603</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="J12" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="0" t="s">
+      <c r="J12" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>2604</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="J13" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="0" t="s">
+      <c r="J13" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <v>2605</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="1" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="0" t="s">
+    <row r="15" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>2606</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="I15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" s="0" t="n">
+      <c r="I15" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="0" t="s">
+    <row r="16" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <v>2619</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>0.09</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="1" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <v>2622</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="1" t="n">
         <v>0.023</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17" s="1" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="0" t="s">
+    <row r="18" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <v>2626</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="1" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="0" t="s">
+    <row r="19" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>2627</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="I19" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="J19" s="0" t="n">
+      <c r="I19" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="J19" s="1" t="n">
         <v>18</v>
       </c>
     </row>
@@ -3268,147 +3220,150 @@
   </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="19.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.1133603238866"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1133603238866"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.1133603238866"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="65.6194331983806"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.7368421052632"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.32793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.2105263157895"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.2672064777328"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.4736842105263"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.7651821862348"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="1" t="n">
         <v>2658</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>0.13</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="1" t="n">
         <v>2659</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>0.13</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+    <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="1" t="n">
         <v>2652</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>0.08</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3430,244 +3385,246 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="19.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6072874493927"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.4008097165992"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="57.7813765182186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.1133603238866"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.6437246963563"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.748987854251"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.00404858299595"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="42.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.32793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.2672064777328"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.2672064777328"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.4736842105263"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.7651821862348"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="0" t="s">
+    <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>2549</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>0.024</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="0" t="s">
+    <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>2550</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>0.024</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="0" t="s">
+    <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>2551</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>0.024</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="0" t="s">
+    <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>2552</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>0.024</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>2555</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>2558</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3689,211 +3646,214 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="19.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6518218623482"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.6275303643725"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.748987854251"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.6194331983806"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="43.4615384615385"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.0323886639676"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.32793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.0323886639676"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.2672064777328"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.4736842105263"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.7651821862348"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="s">
+    <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>2637</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0" t="s">
+    <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>2638</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>2639</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="s">
+    <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>2641</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="0" t="s">
+    <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>2642</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3915,174 +3875,182 @@
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="19.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.6882591093117"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.0566801619433"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.32793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="25.0566801619433"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.2672064777328"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.4736842105263"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.7651821862348"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="s">
+    <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>2578</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0" t="s">
+    <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>2579</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
+    <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>2581</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>2583</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4104,206 +4072,214 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="19.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="37.2145748987854"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.0566801619433"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.32793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="25.0566801619433"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.2672064777328"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.4736842105263"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.7651821862348"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="15" t="s">
+    <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="15" t="n">
+      <c r="F2" s="8" t="n">
         <v>2589</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="16" t="n">
+      <c r="H2" s="9" t="n">
         <v>0.05</v>
       </c>
-      <c r="I2" s="17" t="n">
+      <c r="I2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="15" t="n">
+      <c r="J2" s="8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="15" t="s">
+    <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="15" t="n">
+      <c r="F3" s="8" t="n">
         <v>2590</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="16" t="n">
+      <c r="H3" s="9" t="n">
         <v>0.05</v>
       </c>
-      <c r="I3" s="17" t="n">
+      <c r="I3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="15" t="n">
+      <c r="J3" s="8" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="15" t="s">
+    <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="15" t="n">
+      <c r="F4" s="8" t="n">
         <v>2591</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="16" t="n">
+      <c r="H4" s="9" t="n">
         <v>0.05</v>
       </c>
-      <c r="I4" s="15" t="n">
+      <c r="I4" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="J4" s="15" t="n">
+      <c r="J4" s="8" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="15" t="s">
+    <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="15" t="n">
+      <c r="F5" s="8" t="n">
         <v>2592</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="16" t="n">
+      <c r="H5" s="9" t="n">
         <v>0.05</v>
       </c>
-      <c r="I5" s="15" t="n">
+      <c r="I5" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="J5" s="15" t="n">
+      <c r="J5" s="8" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+    <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="15" t="n">
+      <c r="F6" s="8" t="n">
         <v>2594</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="16" t="n">
+      <c r="H6" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="I6" s="15" t="n">
+      <c r="I6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="15" t="n">
+      <c r="J6" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4325,239 +4301,250 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M30" activeCellId="0" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="19.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.0607287449393"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.0566801619433"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.7125506072875"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.32793522267206"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.0566801619433"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.2672064777328"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.4736842105263"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.7651821862348"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="s">
+    <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>2564</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0" t="s">
+    <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>2565</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
+    <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>2566</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="s">
+    <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>2567</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="0" t="s">
+    <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>2568</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>2571</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="1" t="n">
         <v>6</v>
       </c>
     </row>

--- a/Projects/CCRU_SAND/Data/KPIs_2018/gaps_guide_2018.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2018/gaps_guide_2018.xlsx
@@ -23,14 +23,16 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$K$21</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Supermarket'!$A$1:$K$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$L$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Supermarket'!$A$1:$L$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$J$15</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Convenience Big'!$A$1:$K$16</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -48,7 +50,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,27 +101,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="71">
-  <si>
-    <t xml:space="preserve">Gap Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gap Group Eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subgroup</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="71">
+  <si>
+    <t xml:space="preserve">Gap Category Rus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gap Category Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group Rus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subgroup Rus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subgroup Eng</t>
   </si>
   <si>
     <t xml:space="preserve">Question</t>
   </si>
   <si>
-    <t xml:space="preserve">KPI Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Name</t>
+    <t xml:space="preserve">KPI Name Eng</t>
   </si>
   <si>
     <t xml:space="preserve">Base Weight</t>
@@ -291,9 +296,6 @@
   </si>
   <si>
     <t xml:space="preserve">Drink Out: Morning coffee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atomic Code</t>
   </si>
   <si>
     <t xml:space="preserve">Availability</t>
@@ -581,9 +583,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
+      <xdr:rowOff>128160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -597,7 +599,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17894160" cy="2224080"/>
+          <a:ext cx="17893440" cy="2223360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -648,25 +650,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="1:3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.18218623481781"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2388663967611"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.32793522267206"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.2105263157895"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.2672064777328"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.4736842105263"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.7651821862348"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -691,77 +694,87 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <v>2486</v>
+      <c r="F2" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="11" t="n">
         <v>0.08</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="J2" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="K2" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>2490</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="11" t="n">
+      <c r="H3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="11" t="n">
         <v>0.1</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="J3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="K3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -781,26 +794,25 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="1:15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.18218623481781"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2388663967611"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.1781376518219"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="14.919028340081"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.5344129554656"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.1781376518219"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.4736842105263"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.6801619433198"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.9716599190283"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -820,33 +832,34 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>32</v>
@@ -854,11 +867,14 @@
       <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>2519</v>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>0.01</v>
@@ -872,25 +888,28 @@
     </row>
     <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>2521</v>
+      <c r="F3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>0.01</v>
@@ -904,25 +923,28 @@
     </row>
     <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="1" t="n">
-        <v>2523</v>
+      <c r="F4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>0.01</v>
@@ -936,25 +958,28 @@
     </row>
     <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>2525</v>
+      <c r="F5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>0.01</v>
@@ -968,13 +993,13 @@
     </row>
     <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -982,11 +1007,14 @@
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <v>2527</v>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>0.08</v>
@@ -1000,25 +1028,28 @@
     </row>
     <row r="7" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>2528</v>
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>0.01</v>
@@ -1032,25 +1063,28 @@
     </row>
     <row r="8" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>2529</v>
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>0.03</v>
@@ -1064,25 +1098,28 @@
     </row>
     <row r="9" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>2530</v>
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>0.01</v>
@@ -1096,25 +1133,28 @@
     </row>
     <row r="10" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="1" t="n">
-        <v>2531</v>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>0.06</v>
@@ -1128,25 +1168,28 @@
     </row>
     <row r="11" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>2532</v>
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>0.01</v>
@@ -1160,13 +1203,13 @@
     </row>
     <row r="12" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>43</v>
@@ -1174,11 +1217,14 @@
       <c r="E12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="1" t="n">
-        <v>2533</v>
+      <c r="F12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>0.09</v>
@@ -1192,25 +1238,28 @@
     </row>
     <row r="13" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>2536</v>
+        <v>44</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>0.023</v>
@@ -1224,25 +1273,28 @@
     </row>
     <row r="14" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>2538</v>
+        <v>50</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>0.02</v>
@@ -1256,13 +1308,13 @@
     </row>
     <row r="15" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>47</v>
@@ -1270,11 +1322,14 @@
       <c r="E15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="1" t="n">
-        <v>2539</v>
+      <c r="F15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>0.03</v>
@@ -1310,26 +1365,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="1:16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.18218623481781"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2388663967611"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.1781376518219"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.7125506072875"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.32793522267206"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.1781376518219"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.2672064777328"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.4736842105263"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.7651821862348"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1349,33 +1403,34 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>32</v>
@@ -1383,11 +1438,14 @@
       <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>2494</v>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>0.01</v>
@@ -1401,25 +1459,28 @@
     </row>
     <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>2496</v>
+      <c r="F3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>0.01</v>
@@ -1433,25 +1494,28 @@
     </row>
     <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="1" t="n">
-        <v>2498</v>
+      <c r="F4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>0.01</v>
@@ -1465,25 +1529,28 @@
     </row>
     <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>2500</v>
+      <c r="F5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>0.01</v>
@@ -1497,13 +1564,13 @@
     </row>
     <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -1511,11 +1578,14 @@
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <v>2502</v>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>0.05</v>
@@ -1529,25 +1599,28 @@
     </row>
     <row r="7" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>2503</v>
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>0.01</v>
@@ -1561,25 +1634,28 @@
     </row>
     <row r="8" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>2504</v>
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>0.04</v>
@@ -1593,25 +1669,28 @@
     </row>
     <row r="9" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>2505</v>
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>0.01</v>
@@ -1625,25 +1704,28 @@
     </row>
     <row r="10" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="1" t="n">
-        <v>2506</v>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>0.05</v>
@@ -1657,25 +1739,28 @@
     </row>
     <row r="11" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>2507</v>
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>0.01</v>
@@ -1689,25 +1774,28 @@
     </row>
     <row r="12" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>2508</v>
+      <c r="F12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>0.03</v>
@@ -1721,13 +1809,13 @@
     </row>
     <row r="13" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>43</v>
@@ -1735,11 +1823,14 @@
       <c r="E13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="1" t="n">
-        <v>2509</v>
+      <c r="F13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>0.09</v>
@@ -1753,25 +1844,28 @@
     </row>
     <row r="14" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>2512</v>
+        <v>44</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>0.023</v>
@@ -1785,25 +1879,28 @@
     </row>
     <row r="15" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v>2514</v>
+        <v>50</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>0.02</v>
@@ -1817,13 +1914,13 @@
     </row>
     <row r="16" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>47</v>
@@ -1831,11 +1928,14 @@
       <c r="E16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="1" t="n">
-        <v>2515</v>
+      <c r="F16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>0.03</v>
@@ -1863,25 +1963,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="1:21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.18218623481781"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.1781376518219"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.32793522267206"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.1781376518219"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.2672064777328"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.4736842105263"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.7651821862348"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1909,650 +2009,714 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="n">
-        <v>2597</v>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="6" t="n">
         <v>0.025</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="J2" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="5" t="n">
+      <c r="K2" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>2598</v>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="I3" s="5" t="n">
-        <v>12</v>
-      </c>
       <c r="J3" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="K3" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="5" t="n">
-        <v>2599</v>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="6" t="n">
         <v>0.02</v>
-      </c>
-      <c r="I4" s="5" t="n">
-        <v>3</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
       </c>
+      <c r="K4" s="5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>2600</v>
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="I5" s="5" t="n">
-        <v>13</v>
-      </c>
       <c r="J5" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="K5" s="5" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>2601</v>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="6" t="n">
         <v>0.02</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="J6" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J6" s="5" t="n">
+      <c r="K6" s="5" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>2602</v>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="J7" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="J7" s="5" t="n">
+      <c r="K7" s="5" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="5" t="n">
-        <v>2603</v>
+      <c r="F8" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="6" t="n">
         <v>0.02</v>
       </c>
-      <c r="I8" s="5" t="n">
+      <c r="J8" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J8" s="5" t="n">
+      <c r="K8" s="5" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="5" t="n">
-        <v>2604</v>
+      <c r="F9" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="6" t="n">
         <v>0.02</v>
       </c>
-      <c r="I9" s="5" t="n">
+      <c r="J9" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J9" s="5" t="n">
+      <c r="K9" s="5" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>2605</v>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="6" t="n">
         <v>0.02</v>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="J10" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J10" s="5" t="n">
+      <c r="K10" s="5" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="5" t="n">
-        <v>2606</v>
+      <c r="F11" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="I11" s="5" t="n">
+      <c r="J11" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="J11" s="5" t="n">
+      <c r="K11" s="5" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="J12" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>2607</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="I12" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="J12" s="5" t="n">
+      <c r="K12" s="5" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="5" t="n">
-        <v>2608</v>
+      <c r="F13" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="I13" s="5" t="n">
-        <v>11</v>
-      </c>
       <c r="J13" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="K13" s="5" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="5" t="n">
-        <v>2610</v>
+      <c r="F14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="I14" s="5" t="n">
+      <c r="J14" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="J14" s="5" t="n">
+      <c r="K14" s="5" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="5" t="n">
-        <v>2612</v>
+      <c r="F15" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="I15" s="5" t="n">
+      <c r="J15" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="J15" s="5" t="n">
+      <c r="K15" s="5" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="5" t="n">
-        <v>2614</v>
+      <c r="F16" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="I16" s="5" t="n">
+      <c r="J16" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="J16" s="5" t="n">
+      <c r="K16" s="5" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="5" t="n">
-        <v>2616</v>
+      <c r="F17" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="I17" s="5" t="n">
+      <c r="J17" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="J17" s="5" t="n">
+      <c r="K17" s="5" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="5" t="n">
-        <v>2619</v>
+      <c r="F18" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="6" t="n">
         <v>0.09</v>
       </c>
-      <c r="I18" s="5" t="n">
+      <c r="J18" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J18" s="5" t="n">
+      <c r="K18" s="5" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>2622</v>
+      <c r="E19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="6" t="n">
         <v>0.0225</v>
       </c>
-      <c r="I19" s="5" t="n">
+      <c r="J19" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J19" s="5" t="n">
+      <c r="K19" s="5" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="5" t="n">
-        <v>2626</v>
+      <c r="F20" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I20" s="5" t="n">
+      <c r="J20" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J20" s="5" t="n">
+      <c r="K20" s="5" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="5" t="n">
-        <v>2627</v>
+        <v>13</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="6" t="n">
         <v>0.02</v>
       </c>
-      <c r="I21" s="5" t="n">
+      <c r="J21" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J21" s="5" t="n">
+      <c r="K21" s="5" t="n">
         <v>21</v>
       </c>
     </row>
@@ -2573,25 +2737,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="1:19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.18218623481781"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2388663967611"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.1781376518219"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.32793522267206"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.1781376518219"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.2672064777328"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.4736842105263"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.7651821862348"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2625,16 +2789,20 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>32</v>
@@ -2642,127 +2810,139 @@
       <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <v>2610</v>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="I2" s="1" t="n">
-        <v>12</v>
-      </c>
       <c r="J2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>2612</v>
+      <c r="F3" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="I3" s="1" t="n">
-        <v>13</v>
-      </c>
       <c r="J3" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="K3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="1" t="n">
-        <v>2614</v>
+      <c r="F4" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="J4" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="K4" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="1" t="n">
-        <v>2616</v>
+      <c r="F5" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="J5" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="K5" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -2770,383 +2950,419 @@
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1" t="n">
-        <v>2597</v>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="J6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="K6" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>2598</v>
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="J7" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="J7" s="1" t="n">
+      <c r="K7" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="1" t="n">
-        <v>2599</v>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="J8" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="J8" s="1" t="n">
+      <c r="K8" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>2600</v>
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="I9" s="1" t="n">
+      <c r="J9" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="J9" s="1" t="n">
+      <c r="K9" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>2601</v>
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="I10" s="1" t="n">
+      <c r="J10" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="J10" s="1" t="n">
+      <c r="K10" s="1" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>2602</v>
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="I11" s="1" t="n">
+      <c r="J11" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="J11" s="1" t="n">
+      <c r="K11" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="1" t="n">
-        <v>2603</v>
+      <c r="F12" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="I12" s="1" t="n">
+      <c r="J12" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="J12" s="1" t="n">
+      <c r="K12" s="1" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="1" t="n">
-        <v>2604</v>
+      <c r="F13" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="I13" s="1" t="n">
+      <c r="J13" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="J13" s="1" t="n">
+      <c r="K13" s="1" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>2605</v>
+        <v>14</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="I14" s="1" t="n">
+      <c r="J14" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="J14" s="1" t="n">
+      <c r="K14" s="1" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="1" t="n">
-        <v>2606</v>
+      <c r="F15" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="I15" s="1" t="n">
+      <c r="J15" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="J15" s="1" t="n">
+      <c r="K15" s="1" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>2619</v>
+        <v>17</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="1" t="n">
         <v>0.09</v>
       </c>
-      <c r="I16" s="1" t="n">
+      <c r="J16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J16" s="1" t="n">
+      <c r="K16" s="1" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>2622</v>
+        <v>44</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="1" t="n">
         <v>0.023</v>
       </c>
-      <c r="I17" s="1" t="n">
+      <c r="J17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J17" s="1" t="n">
+      <c r="K17" s="1" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>47</v>
@@ -3154,51 +3370,57 @@
       <c r="E18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="1" t="n">
-        <v>2626</v>
+      <c r="F18" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="I18" s="1" t="n">
+      <c r="J18" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J18" s="1" t="n">
+      <c r="K18" s="1" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>2627</v>
+        <v>50</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="I19" s="1" t="n">
-        <v>11</v>
-      </c>
       <c r="J19" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="K19" s="1" t="n">
         <v>18</v>
       </c>
     </row>
@@ -3218,25 +3440,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="1:4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.18218623481781"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.7368421052632"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.32793522267206"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.2105263157895"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.2672064777328"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.4736842105263"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.7651821862348"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3270,80 +3492,90 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <v>2658</v>
+      <c r="F2" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>0.13</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="J2" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="K2" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>2659</v>
+        <v>51</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="1" t="n">
         <v>0.13</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>2</v>
       </c>
       <c r="J3" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="K3" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>43</v>
@@ -3351,19 +3583,22 @@
       <c r="E4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="1" t="n">
-        <v>2652</v>
+      <c r="F4" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="1" t="n">
         <v>0.08</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="J4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="K4" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3383,25 +3618,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="1:7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.00404858299595"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2388663967611"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="42.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.32793522267206"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.2672064777328"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.2672064777328"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.4736842105263"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.7651821862348"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.03238866396761"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3435,196 +3671,218 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>2549</v>
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>0.024</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="J2" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="K2" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>2550</v>
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="n">
         <v>0.024</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>2</v>
       </c>
       <c r="J3" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="K3" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>2551</v>
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="1" t="n">
         <v>0.024</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>3</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="K4" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="1" t="n">
-        <v>2552</v>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>0.024</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>4</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="K5" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>2555</v>
+        <v>44</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="J6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="K6" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>2558</v>
+        <v>44</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="J7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="1" t="n">
+      <c r="K7" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3644,25 +3902,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="1:6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.18218623481781"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2388663967611"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.0323886639676"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.32793522267206"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.0323886639676"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.2672064777328"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.4736842105263"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.7651821862348"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3696,80 +3954,90 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>2637</v>
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="J2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="K2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>2638</v>
+        <v>47</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="J3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="K3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>43</v>
@@ -3777,83 +4045,92 @@
       <c r="E4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="1" t="n">
-        <v>2639</v>
+      <c r="F4" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="J4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="K4" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>2641</v>
+        <v>47</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="J5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="K5" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>2642</v>
+        <v>47</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="J6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="K6" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3873,25 +4150,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="1:5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.18218623481781"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2388663967611"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.0566801619433"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.32793522267206"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="25.0566801619433"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.2672064777328"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.4736842105263"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.7651821862348"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3925,132 +4202,148 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>2578</v>
+        <v>61</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>0.05</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="J2" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="K2" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>2579</v>
+        <v>61</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="1" t="n">
         <v>0.05</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>2</v>
       </c>
       <c r="J3" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="K3" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="1" t="n">
-        <v>2581</v>
+      <c r="F4" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="1" t="n">
         <v>0.05</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>3</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="K4" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>2583</v>
+        <v>44</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="J5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="K5" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4070,25 +4363,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="1:6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.18218623481781"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2388663967611"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.0566801619433"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.32793522267206"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="25.0566801619433"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.2672064777328"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.4736842105263"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.7651821862348"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4122,164 +4415,183 @@
       <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="8" t="n">
-        <v>2589</v>
+        <v>61</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="9" t="n">
+        <v>58</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="9" t="n">
         <v>0.05</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="J2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="8" t="n">
+      <c r="K2" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="8" t="n">
-        <v>2590</v>
+        <v>61</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="9" t="n">
+        <v>59</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="9" t="n">
         <v>0.05</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="J3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="8" t="n">
+      <c r="K3" s="8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="8" t="n">
-        <v>2591</v>
+        <v>61</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="9" t="n">
+        <v>64</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="9" t="n">
         <v>0.05</v>
-      </c>
-      <c r="I4" s="8" t="n">
-        <v>3</v>
       </c>
       <c r="J4" s="8" t="n">
         <v>3</v>
       </c>
+      <c r="K4" s="8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="8" t="n">
-        <v>2592</v>
+      <c r="F5" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="9" t="n">
+        <v>62</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="9" t="n">
         <v>0.05</v>
-      </c>
-      <c r="I5" s="8" t="n">
-        <v>4</v>
       </c>
       <c r="J5" s="8" t="n">
         <v>4</v>
       </c>
+      <c r="K5" s="8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="8" t="n">
-        <v>2594</v>
+        <v>44</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="9" t="n">
+        <v>63</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="I6" s="8" t="n">
+      <c r="J6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="8" t="n">
+      <c r="K6" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4299,26 +4611,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="1:7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M30" activeCellId="0" sqref="M30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.0607287449393"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2388663967611"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.0566801619433"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.7125506072875"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.32793522267206"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.0566801619433"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.2672064777328"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.4736842105263"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.7651821862348"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4338,45 +4649,49 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>2564</v>
+        <v>61</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>0.05</v>
@@ -4390,25 +4705,28 @@
     </row>
     <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>2565</v>
+        <v>61</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>0.05</v>
@@ -4422,25 +4740,28 @@
     </row>
     <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>2566</v>
+        <v>61</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>0.03</v>
@@ -4454,22 +4775,25 @@
     </row>
     <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>2567</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>66</v>
@@ -4486,25 +4810,28 @@
     </row>
     <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <v>2568</v>
+      <c r="F6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>0.03</v>
@@ -4518,25 +4845,28 @@
     </row>
     <row r="7" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>2571</v>
+        <v>44</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>0.2</v>

--- a/Projects/CCRU_SAND/Data/KPIs_2018/gaps_guide_2018.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2018/gaps_guide_2018.xlsx
@@ -5,34 +5,35 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="rules" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Pos 2018 - MT - Hypermarket" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Pos 2018 - MT - Supermarket" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Pos 2018 - QSR" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Pos 2018 - FT" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Pos 2018 - FT" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Pos 2018 - MT - Hypermarket" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Pos 2018 - MT - Supermarket" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Pos 2018 - QSR" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Pos 2018 - Petroleum" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Pos 2018 - HoReCa Bar" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Pos 2018 - HoReCa Tea" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Pos 2018 - Horeca cafe" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Pos 2018 - HoReCa - Bar Tavern Night Clubs" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Pos 2018 - HoReCa - Coffee Tea Shops" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Pos 2018 - HoReCa - Restaurant Cafe" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Pos 2018 - Canteen" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Pos 2018 - MT - Convenience Small" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="Pos 2018 - MT - Convenience Big" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$L$21</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Supermarket'!$A$1:$L$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$J$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
+    <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$J$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$L$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Supermarket'!$A$1:$L$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$J$15</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Convenience Big'!$A$1:$K$16</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -44,7 +45,7 @@
 </workbook>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author/>
@@ -148,15 +149,57 @@
     <t xml:space="preserve">SSD Displays</t>
   </si>
   <si>
+    <t xml:space="preserve">SSD Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCB Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильник/Холодный Ассортимент</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler/Cold Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Big Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей меньше</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Мерч. Стандарты не соблюдены</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Merch Priorty STD</t>
+  </si>
+  <si>
     <t xml:space="preserve">SSD Display 1st</t>
   </si>
   <si>
     <t xml:space="preserve">SSD Display 1st: Merch. Standard</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice Displays</t>
-  </si>
-  <si>
     <t xml:space="preserve">Juice Display 1st</t>
   </si>
   <si>
@@ -169,24 +212,12 @@
     <t xml:space="preserve">SSD Display 2d: Merch. Standard</t>
   </si>
   <si>
-    <t xml:space="preserve">NCB Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tea Display</t>
-  </si>
-  <si>
     <t xml:space="preserve">Water  Displays</t>
   </si>
   <si>
-    <t xml:space="preserve">Water Display</t>
-  </si>
-  <si>
     <t xml:space="preserve">SSD Display 3d</t>
   </si>
   <si>
-    <t xml:space="preserve">Energy Displays</t>
-  </si>
-  <si>
     <t xml:space="preserve">Energy Display</t>
   </si>
   <si>
@@ -226,24 +257,6 @@
     <t xml:space="preserve">Ice Tea Shelf: Top Shelf</t>
   </si>
   <si>
-    <t xml:space="preserve">Холодильник/Холодный Ассортимент</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler/Cold Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Big Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD</t>
-  </si>
-  <si>
     <t xml:space="preserve">Activation</t>
   </si>
   <si>
@@ -263,18 +276,6 @@
   </si>
   <si>
     <t xml:space="preserve">Eat Out: Informal lunch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей меньше</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты не соблюдены</t>
   </si>
   <si>
     <t xml:space="preserve">Impulse Activation</t>
@@ -459,11 +460,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -583,9 +584,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>291240</xdr:colOff>
+      <xdr:colOff>290880</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:rowOff>127800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -599,7 +600,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17893440" cy="2223360"/>
+          <a:ext cx="17893080" cy="2223000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -658,80 +659,80 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I2" s="11" t="n">
         <v>0.08</v>
@@ -751,22 +752,22 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>67</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I3" s="11" t="n">
         <v>0.1</v>
@@ -802,51 +803,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="29.6720647773279"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.6720647773279"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AMJ1" s="0"/>
@@ -859,22 +860,22 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>0.01</v>
@@ -894,10 +895,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>68</v>
@@ -906,10 +907,10 @@
         <v>68</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>0.01</v>
@@ -929,22 +930,22 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>0.01</v>
@@ -964,10 +965,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>69</v>
@@ -976,10 +977,10 @@
         <v>69</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>0.01</v>
@@ -1011,10 +1012,10 @@
         <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>0.08</v>
@@ -1046,10 +1047,10 @@
         <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>0.01</v>
@@ -1081,10 +1082,10 @@
         <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>0.03</v>
@@ -1116,10 +1117,10 @@
         <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>0.01</v>
@@ -1145,16 +1146,16 @@
         <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>0.06</v>
@@ -1180,16 +1181,16 @@
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>0.01</v>
@@ -1203,28 +1204,28 @@
     </row>
     <row r="12" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>0.09</v>
@@ -1238,28 +1239,28 @@
     </row>
     <row r="13" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>0.023</v>
@@ -1285,16 +1286,16 @@
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>0.02</v>
@@ -1314,22 +1315,22 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>0.03</v>
@@ -1342,7 +1343,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K15">
+  <autoFilter ref="A1:J15">
     <filterColumn colId="1">
       <customFilters and="true">
         <customFilter operator="equal" val="Shelf/Displays/Activation"/>
@@ -1373,51 +1374,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="29.6720647773279"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AMJ1" s="0"/>
@@ -1430,22 +1431,22 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>0.01</v>
@@ -1465,10 +1466,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>68</v>
@@ -1477,10 +1478,10 @@
         <v>68</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>0.01</v>
@@ -1500,22 +1501,22 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>0.01</v>
@@ -1535,10 +1536,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>69</v>
@@ -1547,10 +1548,10 @@
         <v>69</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>0.01</v>
@@ -1582,10 +1583,10 @@
         <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>0.05</v>
@@ -1617,10 +1618,10 @@
         <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>0.01</v>
@@ -1652,10 +1653,10 @@
         <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>0.04</v>
@@ -1687,10 +1688,10 @@
         <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>0.01</v>
@@ -1716,16 +1717,16 @@
         <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>0.05</v>
@@ -1751,16 +1752,16 @@
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>0.01</v>
@@ -1792,10 +1793,10 @@
         <v>70</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>0.03</v>
@@ -1809,28 +1810,28 @@
     </row>
     <row r="13" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>0.09</v>
@@ -1844,28 +1845,28 @@
     </row>
     <row r="14" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>0.023</v>
@@ -1891,16 +1892,16 @@
         <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>0.02</v>
@@ -1920,22 +1921,22 @@
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>0.03</v>
@@ -1963,59 +1964,343 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="1:7"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.03238866396761"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="1:21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="29.6720647773279"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="2" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AMJ1" s="0"/>
@@ -2040,10 +2325,10 @@
         <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I2" s="6" t="n">
         <v>0.025</v>
@@ -2075,10 +2360,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I3" s="6" t="n">
         <v>0.01</v>
@@ -2104,16 +2389,16 @@
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>0.02</v>
@@ -2139,16 +2424,16 @@
         <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>0.01</v>
@@ -2180,10 +2465,10 @@
         <v>14</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0.02</v>
@@ -2215,10 +2500,10 @@
         <v>14</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.01</v>
@@ -2244,16 +2529,16 @@
         <v>13</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>0.02</v>
@@ -2279,16 +2564,16 @@
         <v>13</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I9" s="6" t="n">
         <v>0.02</v>
@@ -2320,10 +2605,10 @@
         <v>14</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0.02</v>
@@ -2349,16 +2634,16 @@
         <v>13</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>0.015</v>
@@ -2384,16 +2669,16 @@
         <v>13</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>0.015</v>
@@ -2419,16 +2704,16 @@
         <v>13</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.015</v>
@@ -2448,22 +2733,22 @@
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0.01</v>
@@ -2483,22 +2768,22 @@
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I15" s="6" t="n">
         <v>0.01</v>
@@ -2518,22 +2803,22 @@
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>0.01</v>
@@ -2553,22 +2838,22 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>0.01</v>
@@ -2582,28 +2867,28 @@
     </row>
     <row r="18" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>0.09</v>
@@ -2617,28 +2902,28 @@
     </row>
     <row r="19" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.0225</v>
@@ -2658,22 +2943,22 @@
         <v>12</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>0.03</v>
@@ -2699,16 +2984,16 @@
         <v>13</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I21" s="6" t="n">
         <v>0.02</v>
@@ -2732,7 +3017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2745,51 +3030,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="29.6720647773279"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AMJ1" s="0"/>
@@ -2802,22 +3087,22 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>0.01</v>
@@ -2837,22 +3122,22 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>0.01</v>
@@ -2872,22 +3157,22 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>0.01</v>
@@ -2907,22 +3192,22 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>0.01</v>
@@ -2954,10 +3239,10 @@
         <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>0.03</v>
@@ -2989,10 +3274,10 @@
         <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>0.01</v>
@@ -3018,16 +3303,16 @@
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>0.025</v>
@@ -3053,16 +3338,16 @@
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>0.01</v>
@@ -3094,10 +3379,10 @@
         <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>0.025</v>
@@ -3129,10 +3414,10 @@
         <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>0.01</v>
@@ -3158,16 +3443,16 @@
         <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>0.025</v>
@@ -3193,16 +3478,16 @@
         <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>0.025</v>
@@ -3234,10 +3519,10 @@
         <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>0.02</v>
@@ -3263,16 +3548,16 @@
         <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>0.02</v>
@@ -3298,16 +3583,16 @@
         <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>0.09</v>
@@ -3321,28 +3606,28 @@
     </row>
     <row r="17" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>0.023</v>
@@ -3362,22 +3647,22 @@
         <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I18" s="1" t="n">
         <v>0.03</v>
@@ -3403,16 +3688,16 @@
         <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>0.02</v>
@@ -3422,184 +3707,6 @@
       </c>
       <c r="K19" s="1" t="n">
         <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="1:4"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3618,60 +3725,59 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:7"/>
+  <dimension ref="1:4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.03238866396761"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AMJ1" s="0"/>
@@ -3684,25 +3790,25 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.024</v>
+        <v>0.13</v>
       </c>
       <c r="J2" s="1" t="n">
         <v>1</v>
@@ -3719,25 +3825,25 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.024</v>
+        <v>0.13</v>
       </c>
       <c r="J3" s="1" t="n">
         <v>2</v>
@@ -3748,142 +3854,37 @@
     </row>
     <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="I4" s="1" t="n">
-        <v>0.024</v>
+        <v>0.08</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3910,51 +3911,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AMJ1" s="0"/>
@@ -3967,16 +3968,16 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>58</v>
@@ -4002,16 +4003,16 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>59</v>
@@ -4031,28 +4032,28 @@
     </row>
     <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>0.1</v>
@@ -4072,22 +4073,22 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>0.05</v>
@@ -4107,16 +4108,16 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>60</v>
@@ -4158,51 +4159,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AMJ1" s="0"/>
@@ -4215,10 +4216,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>61</v>
@@ -4250,10 +4251,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>61</v>
@@ -4285,10 +4286,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>61</v>
@@ -4314,22 +4315,22 @@
     </row>
     <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>63</v>
@@ -4371,20 +4372,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4428,10 +4429,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>61</v>
@@ -4463,10 +4464,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>61</v>
@@ -4498,10 +4499,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>61</v>
@@ -4533,10 +4534,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>61</v>
@@ -4562,22 +4563,22 @@
     </row>
     <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>63</v>
@@ -4613,57 +4614,57 @@
   </sheetPr>
   <dimension ref="1:7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AMJ1" s="0"/>
@@ -4711,10 +4712,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>61</v>
@@ -4746,10 +4747,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>61</v>
@@ -4781,10 +4782,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>61</v>
@@ -4816,10 +4817,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>61</v>
@@ -4845,22 +4846,22 @@
     </row>
     <row r="7" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>63</v>

--- a/Projects/CCRU_SAND/Data/KPIs_2018/gaps_guide_2018.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2018/gaps_guide_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="rules" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,18 +22,19 @@
     <sheet name="Pos 2018 - MT - Convenience Big" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$J$15</definedName>
+    <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$L$21</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Supermarket'!$A$1:$L$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$J$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$J$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$J$15</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Convenience Big'!$A$1:$K$16</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -110,16 +111,16 @@
     <t xml:space="preserve">Gap Category Eng</t>
   </si>
   <si>
-    <t xml:space="preserve">Group Rus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group Eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subgroup Rus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subgroup Eng</t>
+    <t xml:space="preserve">Gap Group Rus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gap Group Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gap Subgroup Rus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gap Subgroup Eng</t>
   </si>
   <si>
     <t xml:space="preserve">Question</t>
@@ -584,9 +585,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>290880</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -600,7 +601,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17893080" cy="2223000"/>
+          <a:ext cx="17892720" cy="2222640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -653,22 +654,22 @@
   </sheetPr>
   <dimension ref="1:3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.1376518218624"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
@@ -797,21 +798,21 @@
   </sheetPr>
   <dimension ref="1:15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.1376518218624"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.8866396761134"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
@@ -1343,7 +1344,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J15">
+  <autoFilter ref="A1:K15">
     <filterColumn colId="1">
       <customFilters and="true">
         <customFilter operator="equal" val="Shelf/Displays/Activation"/>
@@ -1368,21 +1369,21 @@
   </sheetPr>
   <dimension ref="1:16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.1376518218624"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
@@ -1966,22 +1967,22 @@
   </sheetPr>
   <dimension ref="1:7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.1376518218624"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.03238866396761"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="44.0242914979757"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="33.663967611336"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
@@ -2250,21 +2251,21 @@
   </sheetPr>
   <dimension ref="1:21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
@@ -3024,21 +3025,21 @@
   </sheetPr>
   <dimension ref="1:19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.1376518218624"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
@@ -3727,21 +3728,21 @@
   </sheetPr>
   <dimension ref="1:4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.1376518218624"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
@@ -3905,21 +3906,21 @@
   </sheetPr>
   <dimension ref="1:6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.1376518218624"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
@@ -4153,21 +4154,21 @@
   </sheetPr>
   <dimension ref="1:5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.1376518218624"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
@@ -4366,21 +4367,21 @@
   </sheetPr>
   <dimension ref="1:6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.1376518218624"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
@@ -4620,15 +4621,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.1376518218624"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>

--- a/Projects/CCRU_SAND/Data/KPIs_2018/gaps_guide_2018.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2018/gaps_guide_2018.xlsx
@@ -12,30 +12,31 @@
     <sheet name="Pos 2018 - FT" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Pos 2018 - MT - Hypermarket" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Pos 2018 - MT - Supermarket" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Pos 2018 - QSR" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Pos 2018 - Petroleum" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Pos 2018 - MT - Convenience Big" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Pos 2018 - MT - Convenience Small" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Pos 2018 - HoReCa - Bar Tavern Night Clubs" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Pos 2018 - HoReCa - Coffee Tea Shops" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Pos 2018 - HoReCa - Restaurant Cafe" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Pos 2018 - Canteen" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Pos 2018 - MT - Convenience Small" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Pos 2018 - MT - Convenience Big" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Pos 2018 - Petroleum" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Pos 2018 - QSR" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$J$15</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$L$21</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Supermarket'!$A$1:$L$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$J$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$J$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Convenience Big'!$A$1:$K$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Convenience Big'!$A$1:$K$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$J$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$J$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -270,52 +271,52 @@
     <t xml:space="preserve">Promo Displays</t>
   </si>
   <si>
+    <t xml:space="preserve">Tea Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juce Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impulse Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destination Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drink Out: Midday socializing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visible Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drink Out: Morning coffee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eat Out: Formal lunch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Повод: Обед</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eat Out: Informal lunch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the move</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start the day</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cash Zone Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On the move</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eat Out: Informal lunch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impulse Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Destination Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start the day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drink Out: Midday socializing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visible Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drink Out: Morning coffee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eat Out: Formal lunch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Повод: Обед</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juce Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tea Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tea Displays</t>
   </si>
 </sst>
 </file>
@@ -585,9 +586,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>290160</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>127080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -601,7 +602,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17892720" cy="2222640"/>
+          <a:ext cx="17892360" cy="2222280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -654,22 +655,22 @@
   </sheetPr>
   <dimension ref="1:3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
@@ -765,10 +766,10 @@
         <v>52</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="I3" s="11" t="n">
         <v>0.1</v>
@@ -793,26 +794,26 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:15"/>
+  <dimension ref="1:6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
@@ -861,28 +862,28 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K2" s="1" t="n">
         <v>1</v>
@@ -896,28 +897,28 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>2</v>
@@ -925,34 +926,34 @@
     </row>
     <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>3</v>
@@ -966,28 +967,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K5" s="1" t="n">
         <v>4</v>
@@ -1001,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>1</v>
@@ -1028,329 +1029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J9" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J11" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="J12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="J13" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J14" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J15" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K15">
-    <filterColumn colId="1">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Shelf/Displays/Activation"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1358,7 +1037,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1367,23 +1045,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:16"/>
+  <dimension ref="1:4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
@@ -1432,28 +1110,28 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1" t="n">
         <v>1</v>
@@ -1467,28 +1145,28 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>2</v>
@@ -1496,457 +1174,37 @@
     </row>
     <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J9" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J11" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J12" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="J13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="J14" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J15" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J16" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1968,21 +1226,21 @@
   <dimension ref="1:7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.03238866396761"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="44.3481781376518"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="33.663967611336"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="33.9554655870445"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
@@ -2251,21 +1509,21 @@
   </sheetPr>
   <dimension ref="1:21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
@@ -3025,21 +2283,21 @@
   </sheetPr>
   <dimension ref="1:19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
@@ -3726,23 +2984,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:4"/>
+  <dimension ref="1:16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
@@ -3791,101 +3049,521 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="J2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="J4" s="1" t="n">
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="1" t="n">
+    </row>
+    <row r="11" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K12" s="1" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3901,26 +3579,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:6"/>
+  <dimension ref="1:15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="33.1012145748988"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
@@ -3969,28 +3647,28 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K2" s="1" t="n">
         <v>1</v>
@@ -4004,28 +3682,28 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>2</v>
@@ -4033,34 +3711,34 @@
     </row>
     <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>3</v>
@@ -4074,28 +3752,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K5" s="1" t="n">
         <v>4</v>
@@ -4109,25 +3787,25 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>1</v>
@@ -4136,7 +3814,329 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:J15">
+    <filterColumn colId="1">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Shelf/Displays/Activation"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4144,6 +4144,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4154,21 +4155,21 @@
   </sheetPr>
   <dimension ref="1:5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
@@ -4223,16 +4224,16 @@
         <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>0.05</v>
@@ -4258,16 +4259,16 @@
         <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>0.05</v>
@@ -4293,16 +4294,16 @@
         <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>0.05</v>
@@ -4334,10 +4335,10 @@
         <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>0.2</v>
@@ -4367,21 +4368,21 @@
   </sheetPr>
   <dimension ref="1:6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
@@ -4436,16 +4437,16 @@
         <v>51</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I2" s="9" t="n">
         <v>0.05</v>
@@ -4471,16 +4472,16 @@
         <v>51</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I3" s="9" t="n">
         <v>0.05</v>
@@ -4506,16 +4507,16 @@
         <v>51</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I4" s="9" t="n">
         <v>0.05</v>
@@ -4541,16 +4542,16 @@
         <v>51</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="I5" s="9" t="n">
         <v>0.05</v>
@@ -4582,10 +4583,10 @@
         <v>25</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I6" s="9" t="n">
         <v>0.2</v>
@@ -4615,21 +4616,21 @@
   </sheetPr>
   <dimension ref="1:7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
@@ -4678,22 +4679,22 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>0.05</v>
@@ -4719,16 +4720,16 @@
         <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>0.05</v>
@@ -4754,16 +4755,16 @@
         <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>0.03</v>
@@ -4789,16 +4790,16 @@
         <v>51</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>0.03</v>
@@ -4824,16 +4825,16 @@
         <v>51</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>0.03</v>
@@ -4865,10 +4866,10 @@
         <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>0.2</v>
